--- a/Robot6_OpticalCharacterRecognition/Receipt Scraped Output @24November2023-235202.xlsx
+++ b/Robot6_OpticalCharacterRecognition/Receipt Scraped Output @24November2023-235202.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPath Course\UiPathRobots\Robot6_OpticalCharacterRecognition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A1FDEB-89CC-412B-8EDC-3781C4A7E774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120739D1-4E86-465C-8472-2810C7A657F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{7A5A3EC1-A793-441D-AF1B-0B3D605ACF2F}"/>
+    <workbookView xWindow="3690" yWindow="465" windowWidth="21600" windowHeight="13560" xr2:uid="{7A5A3EC1-A793-441D-AF1B-0B3D605ACF2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -392,9 +392,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E2A207-5673-41E6-8C5E-091E0B1DDBDF}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
